--- a/Projektplanung/02-ProductBacklog.xlsx
+++ b/Projektplanung/02-ProductBacklog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ffils\Documents\GitHub\CarrierTracking\Dokumentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ffils\Documents\GitHub\CarrierTracking\Projektplanung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F03729-2352-461F-A22D-02A1EAF19F18}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85D6B08-8714-4EB5-9241-D9C93A54B093}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27660" yWindow="5055" windowWidth="25965" windowHeight="14490" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27420" yWindow="4200" windowWidth="25965" windowHeight="14490" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
   <si>
     <t>Product Backlog</t>
   </si>
@@ -81,9 +81,6 @@
     <t>Als Programmierer möchte ich einen 2D Plan als Raumvorlage bereitgestellt bekommen</t>
   </si>
   <si>
-    <t>Als Benutzer möchte ich Stationen bestehende Ladungsträger zuteilen</t>
-  </si>
-  <si>
     <t>Als Benutzer möchte ich Echzeit Informationen</t>
   </si>
   <si>
@@ -93,21 +90,9 @@
     <t>Als Benutzer möchte ich eine Auflistung der aktuell dazugehörigen Ladungsträger pro Station am Bildschirm angezeigt bekommen</t>
   </si>
   <si>
-    <t>Als Benutzer möchte ich jeden Ladungsträger einzeln anzeigen (Verlinkung in der Liste) und ein optisches Feedback (Highlight) in der Liste erhalten</t>
-  </si>
-  <si>
     <t>Als Benutzer möchte ich verschiedene Konfigurationen selbst definieren (Pfadangabe Shared Ordner, Standortspezifisches)</t>
   </si>
   <si>
-    <t>Als Benutzer möchte ich alle Ladungsträger nach eigenen Vorgaben filtern</t>
-  </si>
-  <si>
-    <t>Als Programmierer möchte ich die QR Codes in einer entsprechenden Größe erhalten und an einer festgelegen Position</t>
-  </si>
-  <si>
-    <t>Als Benutzer möchte ich als Hintergrund zwischen Plan und Bild wechseln können</t>
-  </si>
-  <si>
     <t>Als Kunde möchte ich eine plattformunabhänige Lösung</t>
   </si>
   <si>
@@ -123,9 +108,6 @@
     <t>Als Benutzer möchte ich die Anzeige der Wände einstellen können (Ein-Aus / Transparenz)</t>
   </si>
   <si>
-    <t>Als Benutzer möchte ich die Stationen verwalten können (Name, Ort, Bearbeitung)</t>
-  </si>
-  <si>
     <t>Als Programmierer möchte ich dass die Bilder automatisiert gelöscht werden (1 Bild Backup)</t>
   </si>
   <si>
@@ -138,9 +120,6 @@
     <t>done</t>
   </si>
   <si>
-    <t>GameObject im Bildausschnitt platzieren (Ladungsträger x/y Koordinaten)</t>
-  </si>
-  <si>
     <t>zuletzt aktualisiert: 14.01.2020</t>
   </si>
   <si>
@@ -148,6 +127,21 @@
   </si>
   <si>
     <t>Als Programmierer möchte ich die Grundstruktur des Menü festlegen</t>
+  </si>
+  <si>
+    <t>Als Benutzer möchte ich alle Ladungsträger abhänig der Stationen filtern</t>
+  </si>
+  <si>
+    <t>Als Benutzer möchte ich jede Station einzeln anzeigen (Verlinkung in der Liste) und ein optisches Feedback (Highlight) in der Liste erhalten</t>
+  </si>
+  <si>
+    <t>Als Benutzer möchte ich die Stationen verwalten können (Freitextfeld)</t>
+  </si>
+  <si>
+    <t>Als Benutzer möchte ich Ladungsträger bestehende Stationen zuteilen</t>
+  </si>
+  <si>
+    <t>Als Programmierer möchte ich die QR Codes in einer entsprechenden Größe erhalten und den Speicherort frei wählen</t>
   </si>
 </sst>
 </file>
@@ -178,7 +172,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -215,6 +209,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -339,7 +339,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -370,18 +370,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -410,6 +401,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -420,24 +415,6 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
         <right/>
         <top style="thin">
           <color indexed="64"/>
@@ -547,6 +524,22 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border>
         <bottom style="thin">
           <color indexed="64"/>
@@ -561,12 +554,14 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
   </dxfs>
@@ -651,17 +646,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A4:E30" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="7" tableBorderDxfId="8" totalsRowBorderDxfId="6">
-  <autoFilter ref="A4:E30" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:E30">
-    <sortCondition ref="E4:E30"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A4:E28" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+  <autoFilter ref="A4:E28" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:E28">
+    <sortCondition ref="E4:E28"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Item" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Priority" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Effort" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Status" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Item" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Priority" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Effort" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Status" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -964,10 +959,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK35"/>
+  <dimension ref="A1:AMK34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E28" sqref="D28:E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -980,26 +975,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
     </row>
     <row r="2" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
+      <c r="A2" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
     </row>
     <row r="3" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -1018,14 +1013,14 @@
       <c r="E4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="25"/>
+      <c r="F4" s="22"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="26">
+      <c r="A5" s="23">
         <v>1</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C5" s="9">
         <v>1</v>
@@ -1034,12 +1029,12 @@
         <v>1</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="25"/>
+        <v>27</v>
+      </c>
+      <c r="F5" s="22"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="26">
+      <c r="A6" s="23">
         <v>2</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -1052,16 +1047,16 @@
         <v>3</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="25"/>
+        <v>27</v>
+      </c>
+      <c r="F6" s="22"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="27">
+      <c r="A7" s="23">
         <v>3</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="9">
         <v>2</v>
@@ -1070,11 +1065,11 @@
         <v>2</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="26">
+      <c r="A8" s="23">
         <v>4</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -1087,15 +1082,15 @@
         <v>1</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="27">
+      <c r="A9" s="24">
         <v>5</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>24</v>
+      <c r="B9" s="18" t="s">
+        <v>19</v>
       </c>
       <c r="C9" s="9">
         <v>1</v>
@@ -1104,15 +1099,15 @@
         <v>3</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="26">
+      <c r="A10" s="23">
         <v>6</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C10" s="9">
         <v>1</v>
@@ -1121,15 +1116,15 @@
         <v>2</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="7">
+      <c r="A11" s="27">
         <v>7</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>17</v>
+      <c r="B11" s="28" t="s">
+        <v>16</v>
       </c>
       <c r="C11" s="9">
         <v>2</v>
@@ -1138,11 +1133,11 @@
         <v>2</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="26">
+      <c r="A12" s="23">
         <v>8</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -1155,7 +1150,7 @@
         <v>3</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
@@ -1172,7 +1167,7 @@
         <v>3</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
@@ -1180,7 +1175,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C14" s="9">
         <v>2</v>
@@ -1189,7 +1184,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
@@ -1197,7 +1192,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" s="9">
         <v>2</v>
@@ -1206,14 +1201,14 @@
         <v>2</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="7">
         <v>14</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="21" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="9">
@@ -1223,7 +1218,7 @@
         <v>2</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
@@ -1231,7 +1226,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C17" s="9">
         <v>2</v>
@@ -1240,7 +1235,7 @@
         <v>2</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
@@ -1257,7 +1252,7 @@
         <v>3</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
@@ -1265,7 +1260,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C19" s="9">
         <v>1</v>
@@ -1274,7 +1269,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
@@ -1282,7 +1277,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C20" s="9">
         <v>3</v>
@@ -1291,7 +1286,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
@@ -1299,7 +1294,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C21" s="9">
         <v>2</v>
@@ -1308,7 +1303,7 @@
         <v>2</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
@@ -1316,7 +1311,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C22" s="9">
         <v>2</v>
@@ -1325,7 +1320,7 @@
         <v>1</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
@@ -1333,7 +1328,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C23" s="9">
         <v>1</v>
@@ -1342,52 +1337,52 @@
         <v>1</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="15">
-        <v>25</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="12">
-        <v>3</v>
-      </c>
-      <c r="D24" s="12">
-        <v>3</v>
+      <c r="A24" s="7">
+        <v>11</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="9">
+        <v>1</v>
+      </c>
+      <c r="D24" s="9">
+        <v>1</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="7">
-        <v>11</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>27</v>
+        <v>13</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="C25" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D25" s="9">
         <v>1</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="7">
-        <v>13</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>23</v>
       </c>
       <c r="C26" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D26" s="9">
         <v>1</v>
@@ -1398,85 +1393,53 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="7">
-        <v>15</v>
-      </c>
-      <c r="B27" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="9">
-        <v>1</v>
-      </c>
-      <c r="D27" s="9">
-        <v>1</v>
-      </c>
-      <c r="E27" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="14">
+        <v>3</v>
+      </c>
+      <c r="D27" s="14">
+        <v>3</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="13">
+        <v>26</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="15">
+        <v>3</v>
+      </c>
+      <c r="D28" s="15">
+        <v>3</v>
+      </c>
+      <c r="E28" s="17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="7">
-        <v>22</v>
-      </c>
-      <c r="B28" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" s="9">
-        <v>2</v>
-      </c>
-      <c r="D28" s="9">
-        <v>1</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="7">
-        <v>24</v>
-      </c>
-      <c r="B29" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="C29" s="17">
-        <v>3</v>
-      </c>
-      <c r="D29" s="17">
-        <v>3</v>
-      </c>
-      <c r="E29" s="19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="14">
+      <c r="B29" s="12"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C32" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C33" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30" s="18">
-        <v>3</v>
-      </c>
-      <c r="D30" s="18">
-        <v>3</v>
-      </c>
-      <c r="E30" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B31" s="13"/>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C34" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F34" s="25"/>
-    </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C35" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="F34" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/Projektplanung/02-ProductBacklog.xlsx
+++ b/Projektplanung/02-ProductBacklog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ffils\Documents\GitHub\CarrierTracking\Projektplanung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85D6B08-8714-4EB5-9241-D9C93A54B093}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B6F84A-5F4F-4783-A6B4-C81C788C142A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27420" yWindow="4200" windowWidth="25965" windowHeight="14490" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10880" yWindow="5530" windowWidth="13760" windowHeight="8590" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
   <si>
     <t>Product Backlog</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>Als Programmierer möchte ich die QR Codes in einer entsprechenden Größe erhalten und den Speicherort frei wählen</t>
+  </si>
+  <si>
+    <t>Als Kunde möchte ich wissen, welche Vorraussetzungen erfüllt sein müssen, damit SW funktioniert</t>
   </si>
 </sst>
 </file>
@@ -172,30 +175,12 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFCCFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -339,7 +324,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -370,41 +355,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -646,10 +631,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A4:E28" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
-  <autoFilter ref="A4:E28" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:E28">
-    <sortCondition ref="E4:E28"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A4:E29" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+  <autoFilter ref="A4:E29" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:E29">
+    <sortCondition ref="E4:E29"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="4"/>
@@ -962,7 +947,7 @@
   <dimension ref="A1:AMK34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E28" sqref="D28:E28"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -975,22 +960,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
+      <c r="A2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
     </row>
     <row r="3" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
@@ -1013,10 +998,10 @@
       <c r="E4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="22"/>
+      <c r="F4" s="15"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="23">
+      <c r="A5" s="16">
         <v>1</v>
       </c>
       <c r="B5" s="11" t="s">
@@ -1031,10 +1016,10 @@
       <c r="E5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="22"/>
+      <c r="F5" s="15"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="23">
+      <c r="A6" s="16">
         <v>2</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -1049,10 +1034,10 @@
       <c r="E6" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="22"/>
+      <c r="F6" s="15"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="23">
+      <c r="A7" s="16">
         <v>3</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -1069,7 +1054,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="23">
+      <c r="A8" s="16">
         <v>4</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -1086,10 +1071,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="24">
+      <c r="A9" s="19">
         <v>5</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="9">
@@ -1103,7 +1088,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="23">
+      <c r="A10" s="16">
         <v>6</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -1120,28 +1105,28 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="27">
-        <v>7</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>16</v>
+      <c r="A11" s="16">
+        <v>8</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="C11" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="23">
-        <v>8</v>
+      <c r="A12" s="16">
+        <v>9</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12" s="9">
         <v>3</v>
@@ -1154,17 +1139,17 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="7">
-        <v>9</v>
+      <c r="A13" s="16">
+        <v>10</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="C13" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>27</v>
@@ -1172,67 +1157,67 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C14" s="9">
         <v>2</v>
       </c>
       <c r="D14" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="7">
+      <c r="A15" s="16">
+        <v>14</v>
+      </c>
+      <c r="B15" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="C15" s="9">
+        <v>3</v>
+      </c>
+      <c r="D15" s="9">
+        <v>2</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="16">
+        <v>16</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="9">
+        <v>2</v>
+      </c>
+      <c r="D16" s="9">
+        <v>2</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="16">
         <v>17</v>
       </c>
-      <c r="C15" s="9">
-        <v>2</v>
-      </c>
-      <c r="D15" s="9">
-        <v>2</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="7">
-        <v>14</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="9">
-        <v>3</v>
-      </c>
-      <c r="D16" s="9">
-        <v>2</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="7">
-        <v>16</v>
-      </c>
       <c r="B17" s="11" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C17" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>27</v>
@@ -1240,193 +1225,207 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="7">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="9">
+        <v>1</v>
+      </c>
+      <c r="D18" s="9">
+        <v>1</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="16">
+        <v>19</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="9">
+        <v>3</v>
+      </c>
+      <c r="D19" s="9">
+        <v>1</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="16">
+        <v>20</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="9">
+        <v>2</v>
+      </c>
+      <c r="D20" s="9">
+        <v>2</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="16">
+        <v>21</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="9">
+        <v>2</v>
+      </c>
+      <c r="D21" s="9">
+        <v>1</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="16">
+        <v>22</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="9">
+        <v>1</v>
+      </c>
+      <c r="D22" s="9">
+        <v>1</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="16">
+        <v>13</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="9">
+        <v>3</v>
+      </c>
+      <c r="D23" s="9">
+        <v>1</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="16">
+        <v>23</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="12">
+        <v>3</v>
+      </c>
+      <c r="D24" s="12">
+        <v>3</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="16">
+        <v>24</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="23">
+        <v>3</v>
+      </c>
+      <c r="D25" s="23">
+        <v>3</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="16">
+        <v>25</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="23">
+        <v>3</v>
+      </c>
+      <c r="D26" s="23">
+        <v>2</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="19">
+        <v>7</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="23">
+        <v>2</v>
+      </c>
+      <c r="D27" s="23">
+        <v>2</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="26">
         <v>11</v>
       </c>
-      <c r="C18" s="9">
-        <v>3</v>
-      </c>
-      <c r="D18" s="9">
-        <v>3</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="7">
-        <v>18</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="9">
-        <v>1</v>
-      </c>
-      <c r="D19" s="9">
-        <v>1</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="7">
-        <v>19</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="9">
-        <v>3</v>
-      </c>
-      <c r="D20" s="9">
-        <v>1</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="7">
-        <v>20</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="9">
-        <v>2</v>
-      </c>
-      <c r="D21" s="9">
-        <v>2</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="7">
-        <v>21</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="9">
-        <v>2</v>
-      </c>
-      <c r="D22" s="9">
-        <v>1</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="7">
+      <c r="B28" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="21">
+        <v>1</v>
+      </c>
+      <c r="D28" s="21">
+        <v>1</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="26">
+        <v>15</v>
+      </c>
+      <c r="B29" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="9">
-        <v>1</v>
-      </c>
-      <c r="D23" s="9">
-        <v>1</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="7">
-        <v>11</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="9">
-        <v>1</v>
-      </c>
-      <c r="D24" s="9">
-        <v>1</v>
-      </c>
-      <c r="E24" s="10" t="s">
+      <c r="C29" s="21">
+        <v>1</v>
+      </c>
+      <c r="D29" s="21">
+        <v>1</v>
+      </c>
+      <c r="E29" s="22" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="7">
-        <v>13</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="9">
-        <v>3</v>
-      </c>
-      <c r="D25" s="9">
-        <v>1</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="7">
-        <v>15</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="9">
-        <v>1</v>
-      </c>
-      <c r="D26" s="9">
-        <v>1</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="7">
-        <v>24</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="14">
-        <v>3</v>
-      </c>
-      <c r="D27" s="14">
-        <v>3</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="13">
-        <v>26</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="15">
-        <v>3</v>
-      </c>
-      <c r="D28" s="15">
-        <v>3</v>
-      </c>
-      <c r="E28" s="17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B29" s="12"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C32" s="1" t="s">
@@ -1439,7 +1438,7 @@
       </c>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="F34" s="22"/>
+      <c r="F34" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/Projektplanung/02-ProductBacklog.xlsx
+++ b/Projektplanung/02-ProductBacklog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ffils\Documents\GitHub\CarrierTracking\Projektplanung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B6F84A-5F4F-4783-A6B4-C81C788C142A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4AAD247-5827-47BF-A2A9-B260AA6FC4CD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10880" yWindow="5530" windowWidth="13760" windowHeight="8590" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7560" yWindow="280" windowWidth="29380" windowHeight="18620" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="38">
   <si>
     <t>Product Backlog</t>
   </si>
@@ -90,9 +90,6 @@
     <t>Als Benutzer möchte ich eine Auflistung der aktuell dazugehörigen Ladungsträger pro Station am Bildschirm angezeigt bekommen</t>
   </si>
   <si>
-    <t>Als Benutzer möchte ich verschiedene Konfigurationen selbst definieren (Pfadangabe Shared Ordner, Standortspezifisches)</t>
-  </si>
-  <si>
     <t>Als Kunde möchte ich eine plattformunabhänige Lösung</t>
   </si>
   <si>
@@ -132,19 +129,25 @@
     <t>Als Benutzer möchte ich alle Ladungsträger abhänig der Stationen filtern</t>
   </si>
   <si>
-    <t>Als Benutzer möchte ich jede Station einzeln anzeigen (Verlinkung in der Liste) und ein optisches Feedback (Highlight) in der Liste erhalten</t>
-  </si>
-  <si>
     <t>Als Benutzer möchte ich die Stationen verwalten können (Freitextfeld)</t>
   </si>
   <si>
     <t>Als Benutzer möchte ich Ladungsträger bestehende Stationen zuteilen</t>
   </si>
   <si>
-    <t>Als Programmierer möchte ich die QR Codes in einer entsprechenden Größe erhalten und den Speicherort frei wählen</t>
-  </si>
-  <si>
     <t>Als Kunde möchte ich wissen, welche Vorraussetzungen erfüllt sein müssen, damit SW funktioniert</t>
+  </si>
+  <si>
+    <t>Als Benutzer möchte ich verschiedene Konfigurationen selbst definieren ( Standortspezifisches, Cycle Time)</t>
+  </si>
+  <si>
+    <t>Als Programmierer möchte ich die QR Codes in einer entsprechenden Größe erhalten und Kunde zur Verfügung stellen</t>
+  </si>
+  <si>
+    <t>Als Benutzer möchte ich jede Station einzeln anzeigen (Verlinkung in der Liste)</t>
+  </si>
+  <si>
+    <t>Als Benutzer möchte ich und ein optisches Feedback (Highlight) über ausgewählten Ladungsträger in der Liste erhalten</t>
   </si>
 </sst>
 </file>
@@ -175,7 +178,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -184,19 +187,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -342,9 +333,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -363,14 +351,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -384,18 +366,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
     <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -442,48 +465,6 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -631,17 +612,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A4:E29" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
-  <autoFilter ref="A4:E29" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:E29">
-    <sortCondition ref="E4:E29"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A4:E30" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+  <autoFilter ref="A4:E30" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:E30">
+    <sortCondition ref="A4:A30"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Item" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Priority" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Effort" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Status" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Item" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Priority" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Effort" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Status" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -946,8 +927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -960,26 +941,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
+      <c r="A2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
     </row>
     <row r="3" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -998,447 +979,464 @@
       <c r="E4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="15"/>
+      <c r="F4" s="14"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="16">
-        <v>1</v>
-      </c>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="22">
+        <v>1</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8">
+        <v>1</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="14"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="22">
+        <v>2</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="8">
+        <v>3</v>
+      </c>
+      <c r="D6" s="8">
+        <v>3</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="14"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="22">
+        <v>3</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="8">
+        <v>2</v>
+      </c>
+      <c r="D7" s="8">
+        <v>2</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="22">
+        <v>4</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="8">
+        <v>3</v>
+      </c>
+      <c r="D8" s="8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="22">
+        <v>5</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="8">
+        <v>1</v>
+      </c>
+      <c r="D9" s="8">
+        <v>3</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="22">
+        <v>6</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="8">
+        <v>1</v>
+      </c>
+      <c r="D10" s="8">
+        <v>2</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="22">
+        <v>7</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="20">
+        <v>2</v>
+      </c>
+      <c r="D11" s="20">
+        <v>2</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="22">
+        <v>8</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="8">
+        <v>3</v>
+      </c>
+      <c r="D12" s="8">
+        <v>3</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="22">
+        <v>9</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="8">
+        <v>3</v>
+      </c>
+      <c r="D13" s="8">
+        <v>3</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="22">
+        <v>10</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="8">
+        <v>2</v>
+      </c>
+      <c r="D14" s="8">
+        <v>1</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="22">
+        <v>11</v>
+      </c>
+      <c r="B15" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="9">
-        <v>1</v>
-      </c>
-      <c r="D5" s="9">
-        <v>1</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="15"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="16">
-        <v>2</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="9">
-        <v>3</v>
-      </c>
-      <c r="D6" s="9">
-        <v>3</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="15"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="16">
-        <v>3</v>
-      </c>
-      <c r="B7" s="8" t="s">
+      <c r="C15" s="20">
+        <v>1</v>
+      </c>
+      <c r="D15" s="20">
+        <v>1</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="22">
+        <v>12</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="8">
+        <v>2</v>
+      </c>
+      <c r="D16" s="8">
+        <v>2</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="22">
+        <v>13</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="8">
+        <v>3</v>
+      </c>
+      <c r="D17" s="8">
+        <v>1</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="22">
+        <v>14</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="8">
+        <v>3</v>
+      </c>
+      <c r="D18" s="8">
+        <v>2</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="22">
         <v>15</v>
       </c>
-      <c r="C7" s="9">
-        <v>2</v>
-      </c>
-      <c r="D7" s="9">
-        <v>2</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="16">
-        <v>4</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="9">
-        <v>3</v>
-      </c>
-      <c r="D8" s="9">
-        <v>1</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="19">
-        <v>5</v>
-      </c>
-      <c r="B9" s="14" t="s">
+      <c r="B19" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="20">
+        <v>1</v>
+      </c>
+      <c r="D19" s="20">
+        <v>1</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="22">
+        <v>16</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="8">
+        <v>2</v>
+      </c>
+      <c r="D20" s="8">
+        <v>2</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="22">
+        <v>17</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="8">
+        <v>3</v>
+      </c>
+      <c r="D21" s="8">
+        <v>3</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="22">
+        <v>18</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="8">
+        <v>1</v>
+      </c>
+      <c r="D22" s="8">
+        <v>1</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="22">
         <v>19</v>
       </c>
-      <c r="C9" s="9">
-        <v>1</v>
-      </c>
-      <c r="D9" s="9">
-        <v>3</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="16">
-        <v>6</v>
-      </c>
-      <c r="B10" s="8" t="s">
+      <c r="B23" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="8">
+        <v>3</v>
+      </c>
+      <c r="D23" s="8">
+        <v>1</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="22">
         <v>20</v>
       </c>
-      <c r="C10" s="9">
-        <v>1</v>
-      </c>
-      <c r="D10" s="9">
-        <v>2</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="16">
-        <v>8</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="9">
-        <v>3</v>
-      </c>
-      <c r="D11" s="9">
-        <v>3</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="16">
-        <v>9</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="9">
-        <v>3</v>
-      </c>
-      <c r="D12" s="9">
-        <v>3</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="16">
-        <v>10</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="9">
-        <v>2</v>
-      </c>
-      <c r="D13" s="9">
-        <v>1</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="7">
-        <v>12</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="9">
-        <v>2</v>
-      </c>
-      <c r="D14" s="9">
-        <v>2</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="16">
-        <v>14</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="9">
-        <v>3</v>
-      </c>
-      <c r="D15" s="9">
-        <v>2</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="16">
-        <v>16</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="9">
-        <v>2</v>
-      </c>
-      <c r="D16" s="9">
-        <v>2</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="16">
-        <v>17</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="9">
-        <v>3</v>
-      </c>
-      <c r="D17" s="9">
-        <v>3</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="7">
-        <v>18</v>
-      </c>
-      <c r="B18" s="11" t="s">
+      <c r="B24" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="8">
+        <v>2</v>
+      </c>
+      <c r="D24" s="8">
+        <v>2</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="22">
+        <v>21</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="8">
+        <v>2</v>
+      </c>
+      <c r="D25" s="8">
+        <v>1</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="22">
+        <v>22</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="8">
+        <v>1</v>
+      </c>
+      <c r="D26" s="8">
+        <v>1</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="22">
+        <v>23</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="11">
+        <v>3</v>
+      </c>
+      <c r="D27" s="11">
+        <v>3</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="23">
+        <v>24</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="18">
+        <v>3</v>
+      </c>
+      <c r="D28" s="18">
+        <v>3</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="23">
+        <v>25</v>
+      </c>
+      <c r="B29" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="9">
-        <v>1</v>
-      </c>
-      <c r="D18" s="9">
-        <v>1</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="16">
-        <v>19</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="9">
-        <v>3</v>
-      </c>
-      <c r="D19" s="9">
-        <v>1</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="16">
-        <v>20</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="9">
-        <v>2</v>
-      </c>
-      <c r="D20" s="9">
-        <v>2</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="16">
-        <v>21</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="9">
-        <v>2</v>
-      </c>
-      <c r="D21" s="9">
-        <v>1</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="16">
-        <v>22</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="9">
-        <v>1</v>
-      </c>
-      <c r="D22" s="9">
-        <v>1</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="16">
-        <v>13</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="9">
-        <v>3</v>
-      </c>
-      <c r="D23" s="9">
-        <v>1</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="16">
-        <v>23</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="12">
-        <v>3</v>
-      </c>
-      <c r="D24" s="12">
-        <v>3</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="16">
-        <v>24</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="23">
-        <v>3</v>
-      </c>
-      <c r="D25" s="23">
-        <v>3</v>
-      </c>
-      <c r="E25" s="24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="16">
-        <v>25</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="23">
-        <v>3</v>
-      </c>
-      <c r="D26" s="23">
-        <v>2</v>
-      </c>
-      <c r="E26" s="24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="19">
-        <v>7</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="23">
-        <v>2</v>
-      </c>
-      <c r="D27" s="23">
-        <v>2</v>
-      </c>
-      <c r="E27" s="24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="26">
-        <v>11</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="21">
-        <v>1</v>
-      </c>
-      <c r="D28" s="21">
-        <v>1</v>
-      </c>
-      <c r="E28" s="22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="26">
-        <v>15</v>
-      </c>
-      <c r="B29" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" s="21">
-        <v>1</v>
-      </c>
-      <c r="D29" s="21">
-        <v>1</v>
-      </c>
-      <c r="E29" s="22" t="s">
-        <v>8</v>
+      <c r="C29" s="18">
+        <v>3</v>
+      </c>
+      <c r="D29" s="18">
+        <v>2</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="23">
+        <v>26</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="11">
+        <v>2</v>
+      </c>
+      <c r="D30" s="8">
+        <v>1</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C32" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C33" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="F34" s="15"/>
+      <c r="F34" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
